--- a/Design/s_数值设定/0_数值总表.xlsx
+++ b/Design/s_数值设定/0_数值总表.xlsx
@@ -1,23 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0705F1D-1277-4A0E-8B8E-B3B133BE5F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="等级经验" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分段辅助列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +107,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +161,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -66,12 +189,1133 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>升级耗时</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>等级经验!$D$11:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3348</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4048</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5028</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7383</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7663</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8463</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8983</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9583</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10263</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11023</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11863</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12043</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12268</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12583</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13483</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14068</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14743</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15508</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16363</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0EC-4EE9-816F-DF2687547EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1779383055"/>
+        <c:axId val="1793476303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1779383055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793476303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1793476303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1779383055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2B158A-177E-4C40-B2D3-A45E91E023A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +1326,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -117,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +1394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +1446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,23 +1638,1759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+      <c r="I2" s="5">
+        <f>IF(C2=1,_xlfn.MAXIFS($G$11:$G$69,$B$11:$B$69,C2),_xlfn.MAXIFS($G$11:$G$69,$B$11:$B$69,C2)-I1)</f>
+        <v>1.1312500000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <f>10/I2</f>
+        <v>8.8397790055248606</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.MAXIFS($D$11:$D$69,$B$11:$B$69,C2)</f>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <f>K2</f>
+        <v>965</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I7" si="0">IF(C3=1,_xlfn.MAXIFS($G$11:$G$69,$B$11:$B$69,C3),_xlfn.MAXIFS($G$11:$G$69,$B$11:$B$69,C3)-I2)</f>
+        <v>1.8344444444444443</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J8" si="1">10/I3</f>
+        <v>5.4512416717141132</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="2">_xlfn.MAXIFS($D$11:$D$69,$B$11:$B$69,C3)</f>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="3">K3</f>
+        <v>1694</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2255555555555553</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3665527215356299</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2788</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1615277777777777</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2252607933563637</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>7023</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>16.785277777777779</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59576017343240606</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>11863</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>11863</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>27.794166666666669</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35978772524210711</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>17308</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5">
+        <f>SUM(I2:I7)</f>
+        <v>59.932222222222222</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <f>ROUNDUP(C11/9.9,)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>INT((MOD(C11,10)+2)^INDEX($F$2:$F$7,B11)*INDEX($G$2:$G$7,B11)+INDEX($H$2:$H$7,B11))</f>
+        <v>845</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11/(3600)/$E$9</f>
+        <v>0.11736111111111111</v>
+      </c>
+      <c r="F11">
+        <f>IF(C11=1,D11,F10+D11)</f>
+        <v>845</v>
+      </c>
+      <c r="G11" s="3">
+        <f>F11/(3600)/$E$9</f>
+        <v>0.11736111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <f t="shared" ref="B12:B69" si="4">ROUNDUP(C12/9.9,)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D69" si="5">INT((MOD(C12,10)+2)^INDEX($F$2:$F$7,B12)*INDEX($G$2:$G$7,B12)+INDEX($H$2:$H$7,B12))</f>
+        <v>860</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:E69" si="6">D12/(3600)/$E$9</f>
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F69" si="7">IF(C12=1,D12,F11+D12)</f>
+        <v>1705</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G69" si="8">F12/(3600)/$E$9</f>
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>875</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="7"/>
+        <v>2580</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.35833333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>890</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="7"/>
+        <v>3470</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="8"/>
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>905</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>4375</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60763888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>920</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>5295</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="8"/>
+        <v>0.73541666666666672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>935</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>6230</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="8"/>
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>950</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>7180</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99722222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>965</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>8145</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1312500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>1021</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14180555555555555</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>9166</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2730555555555556</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>1068</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14833333333333334</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>10234</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4213888888888888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>1125</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>11359</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5776388888888888</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>1188</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>12547</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="8"/>
+        <v>1.7426388888888888</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>1258</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
+        <v>0.17472222222222222</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>13805</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9173611111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>1335</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>15140</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1027777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>1417</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.19680555555555557</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>16557</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
+        <v>2.2995833333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>1505</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="6"/>
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>18062</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5086111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>1597</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="6"/>
+        <v>0.22180555555555556</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>19659</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
+        <v>2.7304166666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>1694</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="6"/>
+        <v>0.23527777777777778</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>21353</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="8"/>
+        <v>2.9656944444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>1778</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.24694444444444444</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>23131</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="8"/>
+        <v>3.2126388888888888</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>1849</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25680555555555556</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>24980</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="8"/>
+        <v>3.4694444444444446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>1934</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="6"/>
+        <v>0.26861111111111113</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>26914</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="8"/>
+        <v>3.7380555555555555</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>2029</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="6"/>
+        <v>0.28180555555555553</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>28943</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0198611111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>2134</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29638888888888887</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>31077</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="8"/>
+        <v>4.3162500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>2249</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="6"/>
+        <v>0.31236111111111109</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>33326</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="8"/>
+        <v>4.6286111111111108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>2372</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="6"/>
+        <v>0.32944444444444443</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>35698</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="8"/>
+        <v>4.9580555555555552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>2504</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="6"/>
+        <v>0.3477777777777778</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>38202</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="8"/>
+        <v>5.3058333333333332</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>2642</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="6"/>
+        <v>0.36694444444444446</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>40844</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="8"/>
+        <v>5.6727777777777781</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>2788</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="6"/>
+        <v>0.38722222222222225</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>43632</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="8"/>
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>2928</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="6"/>
+        <v>0.40666666666666668</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>46560</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="8"/>
+        <v>6.4666666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>3103</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="6"/>
+        <v>0.4309722222222222</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>49663</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="8"/>
+        <v>6.8976388888888893</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>3348</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>53011</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="8"/>
+        <v>7.3626388888888892</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>3663</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="6"/>
+        <v>0.50875000000000004</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>56674</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="8"/>
+        <v>7.8713888888888892</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>4048</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56222222222222218</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>60722</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>8.4336111111111105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>4503</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="6"/>
+        <v>0.62541666666666662</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>65225</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>9.0590277777777786</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>5028</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="6"/>
+        <v>0.69833333333333336</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>70253</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="8"/>
+        <v>9.7573611111111109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>5623</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78097222222222218</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>75876</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="8"/>
+        <v>10.538333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>6288</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="6"/>
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>82164</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="8"/>
+        <v>11.411666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>7023</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97541666666666671</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>89187</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="8"/>
+        <v>12.387083333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>7183</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99763888888888885</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>96370</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="8"/>
+        <v>13.384722222222223</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>7383</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0254166666666666</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>103753</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="8"/>
+        <v>14.410138888888889</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>7663</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0643055555555556</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>111416</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="8"/>
+        <v>15.474444444444444</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>8023</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1143055555555557</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>119439</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="8"/>
+        <v>16.588750000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>8463</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1754166666666668</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>127902</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="8"/>
+        <v>17.764166666666668</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>8983</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="6"/>
+        <v>1.247638888888889</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>136885</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="8"/>
+        <v>19.011805555555554</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>9583</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3309722222222222</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>146468</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="8"/>
+        <v>20.342777777777776</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>47</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>10263</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4254166666666668</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>156731</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="8"/>
+        <v>21.768194444444443</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>11023</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5309722222222222</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>167754</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="8"/>
+        <v>23.299166666666668</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>11863</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6476388888888889</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>179617</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="8"/>
+        <v>24.946805555555557</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>12043</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6726388888888888</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>191660</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="8"/>
+        <v>26.619444444444444</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>12268</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7038888888888888</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>203928</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="8"/>
+        <v>28.323333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>12583</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="6"/>
+        <v>1.747638888888889</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>216511</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="8"/>
+        <v>30.070972222222224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>12988</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8038888888888889</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>229499</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>31.874861111111112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>13483</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="6"/>
+        <v>1.872638888888889</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>242982</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>33.747500000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>14068</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9538888888888888</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="7"/>
+        <v>257050</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>35.701388888888886</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>14743</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0476388888888888</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>271793</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="8"/>
+        <v>37.749027777777776</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>15508</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="6"/>
+        <v>2.153888888888889</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>287301</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="8"/>
+        <v>39.90291666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>58</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>16363</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2726388888888889</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>303664</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="8"/>
+        <v>42.175555555555555</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>17308</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="6"/>
+        <v>2.403888888888889</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>320972</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="8"/>
+        <v>44.579444444444448</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F11:F69" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -390,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
